--- a/biology/Botanique/Francis_Hardy/Francis_Hardy.xlsx
+++ b/biology/Botanique/Francis_Hardy/Francis_Hardy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Francis Hardy, né le 14 décembre 1923 à Cognac (Charente), ville où il est mort le 11 mars 2021[1],[2], est un homme politique français.
+Francis Hardy, né le 14 décembre 1923 à Cognac (Charente), ville où il est mort le 11 mars 2021 est un homme politique français.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été demi de mêlée à l'USC puis président du club durant de nombreuses années[3].
-Il a vécu à Cognac et y a travaillé comme négociant, à la tête de la maison de cognac Hardy[4].
-Aimant sa ville, il a cherché à préserver et rénover son patrimoine, que ce soit aussi bien en installant la bibliothèque dans les bâtiments conventuels jouxtant l'église Saint-Léger qu'en impulsant la création du Musée des arts du cognac (MACO)[5].
-Il soutient Noël Belliot lors des municipales de 2014 à Cognac[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été demi de mêlée à l'USC puis président du club durant de nombreuses années.
+Il a vécu à Cognac et y a travaillé comme négociant, à la tête de la maison de cognac Hardy.
+Aimant sa ville, il a cherché à préserver et rénover son patrimoine, que ce soit aussi bien en installant la bibliothèque dans les bâtiments conventuels jouxtant l'église Saint-Léger qu'en impulsant la création du Musée des arts du cognac (MACO).
+Il soutient Noël Belliot lors des municipales de 2014 à Cognac,.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Mandats électifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est élu député de la 2e circonscription de la Charente le 11 mars 1973, sera réélu le 12 mars 1978 ; battu en 1981, il sera réélu le 16 mars 1986.
 Il est conseiller général de l'ancien canton de Cognac de 1970 à 1973, puis de Cognac-Sud de 1973 à 1976 et de Cognac-Nord de 1985 à 1992.
 Il est maire de Cognac de 1979 à 2001.
-Il est conseiller régional de Poitou-Charentes[8] et président de la région de 1978[9] à 1980[10].</t>
+Il est conseiller régional de Poitou-Charentes et président de la région de 1978 à 1980.</t>
         </is>
       </c>
     </row>
